--- a/playlists/sortlist.xlsx
+++ b/playlists/sortlist.xlsx
@@ -9008,8 +9008,8 @@
   <dimension ref="A1:F2511"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
+      <pane ySplit="1" topLeftCell="A165" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D185" sqref="D185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/playlists/sortlist.xlsx
+++ b/playlists/sortlist.xlsx
@@ -9008,8 +9008,8 @@
   <dimension ref="A1:F2511"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A165" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D185" sqref="D185"/>
+      <pane ySplit="1" topLeftCell="A681" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E701" sqref="E701"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/playlists/sortlist.xlsx
+++ b/playlists/sortlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/21d7c8813905cc1a/Documents/Git/IPTV-M3U-Checker2/playlists/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="833" documentId="13_ncr:1_{1FA2E73B-BEAE-4A56-B1D5-95D3A2AC1A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3374908E-E308-4B6B-8F3F-971B9510EA6A}"/>
+  <xr:revisionPtr revIDLastSave="835" documentId="13_ncr:1_{1FA2E73B-BEAE-4A56-B1D5-95D3A2AC1A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{75C51B2C-EF67-45DA-9418-9E4D38F8F2E4}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D16219B1-5F24-4FB3-9502-E77BE7AD7ECA}"/>
   </bookViews>
@@ -8689,7 +8689,28 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{22857BB6-2BD6-4BCA-A5EF-F25A0255F882}"/>
   </tableStyles>
@@ -9008,8 +9029,8 @@
   <dimension ref="A1:F2511"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A681" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E701" sqref="E701"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
